--- a/sample/test/questionable.xlsx
+++ b/sample/test/questionable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3401F3A0-98DC-9840-B391-5188D4F1DF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEA695-B2E7-AE45-979F-EA9393481BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -90,7 +90,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">param: {offset: 1}
+          <t xml:space="preserve">params: {offset: 1}
 </t>
         </r>
         <r>

--- a/sample/test/questionable.xlsx
+++ b/sample/test/questionable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AEA695-B2E7-AE45-979F-EA9393481BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECEF43-23DD-514C-833D-783FC2BA1FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -130,7 +130,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
+          <t xml:space="preserve">--}}
 </t>
         </r>
         <r>
@@ -150,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -180,8 +180,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
-</t>
+          <t>--}}</t>
         </r>
       </text>
     </comment>
@@ -214,7 +213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -244,7 +243,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>%%end eco</t>
+          <t>--}}</t>
         </r>
       </text>
     </comment>
@@ -671,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
